--- a/插花/Excel配置表/Question.xlsx
+++ b/插花/Excel配置表/Question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="483">
   <si>
     <t>问题</t>
   </si>
@@ -36,6 +36,9 @@
     <t>选项D</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>question</t>
   </si>
   <si>
@@ -54,9 +57,15 @@
     <t>select_D</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>int+</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -76,6 +85,1611 @@
   </si>
   <si>
     <t>D.1.5-2倍</t>
+  </si>
+  <si>
+    <t>2.‎花器单位指的是什么？</t>
+  </si>
+  <si>
+    <t>A.花器的最大宽度</t>
+  </si>
+  <si>
+    <t>B.花器的直径</t>
+  </si>
+  <si>
+    <t>C.花器的高度</t>
+  </si>
+  <si>
+    <t>D.花器的高度和花器的最大直径或最大宽度之和</t>
+  </si>
+  <si>
+    <t>3.‏以下哪些构图形式属于对称式构图？</t>
+  </si>
+  <si>
+    <t>0;1;2;3</t>
+  </si>
+  <si>
+    <t>A.倒T形</t>
+  </si>
+  <si>
+    <t>B.水平形</t>
+  </si>
+  <si>
+    <t>C.扇形</t>
+  </si>
+  <si>
+    <t>D.半球形</t>
+  </si>
+  <si>
+    <t>4.‏非对称式构图有：</t>
+  </si>
+  <si>
+    <t>0;3</t>
+  </si>
+  <si>
+    <t>A.L型</t>
+  </si>
+  <si>
+    <t>B.水平型</t>
+  </si>
+  <si>
+    <t>C.三角型</t>
+  </si>
+  <si>
+    <t>D.弯月型</t>
+  </si>
+  <si>
+    <t>1.插花创作过程中，红色与橙色的组合配色属于哪一种配色方法？</t>
+  </si>
+  <si>
+    <t>A.对比色配色</t>
+  </si>
+  <si>
+    <t>B.同色系配色</t>
+  </si>
+  <si>
+    <t>C.近似色配色</t>
+  </si>
+  <si>
+    <t>D.多色系配色</t>
+  </si>
+  <si>
+    <t>2.插花创作过程中，蓝色与橙色的组合配色属于哪一种配色方法？</t>
+  </si>
+  <si>
+    <t>B.近似色配色</t>
+  </si>
+  <si>
+    <t>C.同色系配色</t>
+  </si>
+  <si>
+    <t>3.下列色彩中，属于三原色的颜色是哪个？</t>
+  </si>
+  <si>
+    <t>A.绿色</t>
+  </si>
+  <si>
+    <t>B.紫色</t>
+  </si>
+  <si>
+    <t>C.橙色</t>
+  </si>
+  <si>
+    <t>D.黄色</t>
+  </si>
+  <si>
+    <t>1.‏花材包扎时要包扎的部位？</t>
+  </si>
+  <si>
+    <t>A.花材上部包括花朵</t>
+  </si>
+  <si>
+    <t>B.整个花材所有部位必须包扎起来</t>
+  </si>
+  <si>
+    <t>C.花材基部</t>
+  </si>
+  <si>
+    <t>D.花茎</t>
+  </si>
+  <si>
+    <t>2.下列哪种花材不属于散状花材？</t>
+  </si>
+  <si>
+    <t>A.玫瑰</t>
+  </si>
+  <si>
+    <t>B.情人草</t>
+  </si>
+  <si>
+    <t>C.勿忘我</t>
+  </si>
+  <si>
+    <t>D.满天星</t>
+  </si>
+  <si>
+    <t>3.插花花材选购时需要注意的事项？</t>
+  </si>
+  <si>
+    <t>A.花材的整体形态无萎蔫、发黄、变褐、腐烂</t>
+  </si>
+  <si>
+    <t>B.手触摸水中的花枝无黏滑感觉</t>
+  </si>
+  <si>
+    <t>C.花朵大部分全开的不宜购买</t>
+  </si>
+  <si>
+    <t>D.花材的花茎挺拔有力者新鲜</t>
+  </si>
+  <si>
+    <t>4.常用的花材保鲜方法有哪些？</t>
+  </si>
+  <si>
+    <t>A.保鲜剂保鲜</t>
+  </si>
+  <si>
+    <t>B.水中剪切</t>
+  </si>
+  <si>
+    <t>C.扩大切口</t>
+  </si>
+  <si>
+    <t>D.冷藏保鲜</t>
+  </si>
+  <si>
+    <t>1.剑山的底座由什么金属组成？</t>
+  </si>
+  <si>
+    <t>A.铜</t>
+  </si>
+  <si>
+    <t>B.铝</t>
+  </si>
+  <si>
+    <t>C.锡</t>
+  </si>
+  <si>
+    <t>D.铁</t>
+  </si>
+  <si>
+    <t>2.花泥填充花器时，应高出花器口多少厘米左右？</t>
+  </si>
+  <si>
+    <t>A.3cm</t>
+  </si>
+  <si>
+    <t>B.2cm</t>
+  </si>
+  <si>
+    <t>C.1cm</t>
+  </si>
+  <si>
+    <t>D.5cm</t>
+  </si>
+  <si>
+    <t>3.‏下列哪种花器不能使用花泥固定花材？</t>
+  </si>
+  <si>
+    <t>A.缸</t>
+  </si>
+  <si>
+    <t>B.浅的玻璃花瓶</t>
+  </si>
+  <si>
+    <t>C.古朴的高深花瓶</t>
+  </si>
+  <si>
+    <t>D.篮子</t>
+  </si>
+  <si>
+    <t>4.插花花艺者必须掌握的三个基本技能包括？</t>
+  </si>
+  <si>
+    <t>0;2;3</t>
+  </si>
+  <si>
+    <t>A.弯曲</t>
+  </si>
+  <si>
+    <t>B.造型</t>
+  </si>
+  <si>
+    <t>C.固定</t>
+  </si>
+  <si>
+    <t>D.修剪</t>
+  </si>
+  <si>
+    <t>5.花材经过加工后，根据使用花器不同可选用的固定方法有哪几种？</t>
+  </si>
+  <si>
+    <t>A.花泥固定法</t>
+  </si>
+  <si>
+    <t>B.瓶口隔小法</t>
+  </si>
+  <si>
+    <t>C.集束固定法</t>
+  </si>
+  <si>
+    <t>D.剑山固定法</t>
+  </si>
+  <si>
+    <t>1.‎花道是哪个国家对插花的别称？</t>
+  </si>
+  <si>
+    <t>A.日本</t>
+  </si>
+  <si>
+    <t>B.美国</t>
+  </si>
+  <si>
+    <t>C.韩国</t>
+  </si>
+  <si>
+    <t>D.中国</t>
+  </si>
+  <si>
+    <t>2.牡丹和菊花属于哪类花材？</t>
+  </si>
+  <si>
+    <t>A.团状花材</t>
+  </si>
+  <si>
+    <t>B.散状花材</t>
+  </si>
+  <si>
+    <t>C.线状花材</t>
+  </si>
+  <si>
+    <t>D.特殊形状花材</t>
+  </si>
+  <si>
+    <t>3.‎线状花材在构图中的作用是什么？</t>
+  </si>
+  <si>
+    <t>A.作为主花</t>
+  </si>
+  <si>
+    <t>B.构成作品的基本轮廓</t>
+  </si>
+  <si>
+    <t>C.烘托、陪衬和填充</t>
+  </si>
+  <si>
+    <t>D.作为焦点花</t>
+  </si>
+  <si>
+    <t>4.‎花材基部插入花泥的深度不可太大，一般应是多少？</t>
+  </si>
+  <si>
+    <t>A.1-2cm</t>
+  </si>
+  <si>
+    <t>B.3-4cm</t>
+  </si>
+  <si>
+    <t>C.4-5cm</t>
+  </si>
+  <si>
+    <t>D.2-3cm</t>
+  </si>
+  <si>
+    <t>5.勿忘我属于下列哪类花材？</t>
+  </si>
+  <si>
+    <t>B.线状花材</t>
+  </si>
+  <si>
+    <t>C.特殊形状花材</t>
+  </si>
+  <si>
+    <t>D.散状花材</t>
+  </si>
+  <si>
+    <t>6.勿忘我和绣球松属于下列哪类的花材？</t>
+  </si>
+  <si>
+    <t>A.散状花材</t>
+  </si>
+  <si>
+    <t>B.特殊形状花材</t>
+  </si>
+  <si>
+    <t>C.团状花材</t>
+  </si>
+  <si>
+    <t>D.线状花材</t>
+  </si>
+  <si>
+    <t>7.‏特殊形状花材在构图中的作用是什么？</t>
+  </si>
+  <si>
+    <t>A.作焦点花或放在作品的显眼处</t>
+  </si>
+  <si>
+    <t>B.构成花型轮廓和基本构架</t>
+  </si>
+  <si>
+    <t>C.烘托 陪衬和填充，增加作品的层次感</t>
+  </si>
+  <si>
+    <t>D.可作为主花单独插 或作为焦点花</t>
+  </si>
+  <si>
+    <t>8.下列哪种花器口径大，贮水浅，水面广，多用剑山固定花材？</t>
+  </si>
+  <si>
+    <t>A.盘</t>
+  </si>
+  <si>
+    <t>B.篮</t>
+  </si>
+  <si>
+    <t>C.瓶</t>
+  </si>
+  <si>
+    <t>D.筒</t>
+  </si>
+  <si>
+    <t>9.玫瑰和非洲菊属于下列哪类花材？</t>
+  </si>
+  <si>
+    <t>A.线状花材</t>
+  </si>
+  <si>
+    <t>B.团状花材</t>
+  </si>
+  <si>
+    <t>10.下列哪些花材属于散状花材？</t>
+  </si>
+  <si>
+    <t>0;1;2</t>
+  </si>
+  <si>
+    <t>A.天门冬</t>
+  </si>
+  <si>
+    <t>B.满天星</t>
+  </si>
+  <si>
+    <t>C.文心兰</t>
+  </si>
+  <si>
+    <t>D.玫瑰</t>
+  </si>
+  <si>
+    <t>11.下列关于剑山的描述，正确的有哪些？</t>
+  </si>
+  <si>
+    <t>0;1;3</t>
+  </si>
+  <si>
+    <t>A.不会生锈，不易磨损，可以反复使用</t>
+  </si>
+  <si>
+    <t>B.剑山浸于水中，花材直接与水接触，利于花材吸水。</t>
+  </si>
+  <si>
+    <t>C.可与花泥配合使用。</t>
+  </si>
+  <si>
+    <t>D.插花作品的基部干净利落，不需用很多叶子遮盖，适合浅盘中使用</t>
+  </si>
+  <si>
+    <t>12.花艺设计以理性设计为主，是带有商品性的一种产品设计，是专业花店的用语。</t>
+  </si>
+  <si>
+    <t>A.√</t>
+  </si>
+  <si>
+    <t>B.×</t>
+  </si>
+  <si>
+    <t>C.None</t>
+  </si>
+  <si>
+    <t>D.None</t>
+  </si>
+  <si>
+    <t>13.‏在传统的东方插花中，花器是插花作品不可缺少的组成部分。古人要求花、器、几架三位一体。</t>
+  </si>
+  <si>
+    <t>14.‏插花艺术按花材性质分类，可分为鲜花插花、干花插花、干鲜花混合插花和人造花插花。</t>
+  </si>
+  <si>
+    <t>15.‎在许多现代流行花艺中，可以不使用容器，而是将作品常直接在平台、垫板上插制，或借用架构支撑花材和造型。</t>
+  </si>
+  <si>
+    <t>16. 插花艺术的美是指</t>
+  </si>
+  <si>
+    <t>A.装饰美</t>
+  </si>
+  <si>
+    <t>B.艺术美</t>
+  </si>
+  <si>
+    <t>C.自然美</t>
+  </si>
+  <si>
+    <t>D.人文美</t>
+  </si>
+  <si>
+    <t>17.插花创作素材的观赏特点是</t>
+  </si>
+  <si>
+    <t>A.花型</t>
+  </si>
+  <si>
+    <t>B.色彩</t>
+  </si>
+  <si>
+    <t>C.姿态</t>
+  </si>
+  <si>
+    <t>D.芳香</t>
+  </si>
+  <si>
+    <t>18.按插花素材的性质分类，可将插花作品分为</t>
+  </si>
+  <si>
+    <t>A.鲜花插花</t>
+  </si>
+  <si>
+    <t>B.干花插花</t>
+  </si>
+  <si>
+    <t>C.人造花插花</t>
+  </si>
+  <si>
+    <t>D.混合插花</t>
+  </si>
+  <si>
+    <t>19.按插花作品的用途分类，可将插花作品分为</t>
+  </si>
+  <si>
+    <t>0;1</t>
+  </si>
+  <si>
+    <t>A.礼仪插花</t>
+  </si>
+  <si>
+    <t>B.艺术插花</t>
+  </si>
+  <si>
+    <t>20. 按插花作品的艺术风格分类，可将插花作品分为</t>
+  </si>
+  <si>
+    <t>A.东方插花</t>
+  </si>
+  <si>
+    <t>B.西方插花</t>
+  </si>
+  <si>
+    <t>21.按照整体轮廓分类，可将插花作品的构图分为</t>
+  </si>
+  <si>
+    <t>A.对称式插花</t>
+  </si>
+  <si>
+    <t>B.非对称式插花</t>
+  </si>
+  <si>
+    <t>C.盆景式插花</t>
+  </si>
+  <si>
+    <t>22.按照花枝在空间的位置分类，可将插花作品的构图分为</t>
+  </si>
+  <si>
+    <t>A.直立型插花</t>
+  </si>
+  <si>
+    <t>B.倾斜型插花</t>
+  </si>
+  <si>
+    <t>C.平展型插花</t>
+  </si>
+  <si>
+    <t>D.下垂型插花</t>
+  </si>
+  <si>
+    <t>23.插花容器的作用是</t>
+  </si>
+  <si>
+    <t>A.提供水分</t>
+  </si>
+  <si>
+    <t>B.烘托作品</t>
+  </si>
+  <si>
+    <t>C.固定花枝</t>
+  </si>
+  <si>
+    <t>D.适于陈设</t>
+  </si>
+  <si>
+    <t>24.叶材类素材在插花中的作用是</t>
+  </si>
+  <si>
+    <t>A.造型骨架</t>
+  </si>
+  <si>
+    <t>B.衬托作品</t>
+  </si>
+  <si>
+    <t>C.提供色彩</t>
+  </si>
+  <si>
+    <t>D.创意主题</t>
+  </si>
+  <si>
+    <t>25.枝材类素材在插花中的作用是</t>
+  </si>
+  <si>
+    <t>B.延伸空间</t>
+  </si>
+  <si>
+    <t>26.花材类素材在插花中的作用是</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>A.延伸空间</t>
+  </si>
+  <si>
+    <t>B.造型骨架</t>
+  </si>
+  <si>
+    <t>C.创意主题</t>
+  </si>
+  <si>
+    <t>D.提供色彩</t>
+  </si>
+  <si>
+    <t>27.花束作为礼仪插花作品，最为典型的装饰效果是</t>
+  </si>
+  <si>
+    <t>A.便于携带</t>
+  </si>
+  <si>
+    <t>B.表达欢迎</t>
+  </si>
+  <si>
+    <t>C.烘托环境</t>
+  </si>
+  <si>
+    <t>D.渲染氛围</t>
+  </si>
+  <si>
+    <t>28.防止插花素材失水萎蔫的技术措施有</t>
+  </si>
+  <si>
+    <t>A.深水醒花</t>
+  </si>
+  <si>
+    <t>B.花材注水</t>
+  </si>
+  <si>
+    <t>C.低温保存</t>
+  </si>
+  <si>
+    <t>D.花材保鲜</t>
+  </si>
+  <si>
+    <t>29.花篮作为礼仪插花作品，最为典型的装饰效果是</t>
+  </si>
+  <si>
+    <t>A.应用普遍</t>
+  </si>
+  <si>
+    <t>30.桌饰作为礼仪插花作品，最为典型的装饰效果是</t>
+  </si>
+  <si>
+    <t>A.装饰效果盛大</t>
+  </si>
+  <si>
+    <t>31. 婚礼花束常见的造型为</t>
+  </si>
+  <si>
+    <t>A.球形</t>
+  </si>
+  <si>
+    <t>B.下垂型</t>
+  </si>
+  <si>
+    <t>C.水滴型</t>
+  </si>
+  <si>
+    <t>D.瀑布型</t>
+  </si>
+  <si>
+    <t>32.插花创作受到现代艺术潮流的影响，出现了一些新的创作形式，例如</t>
+  </si>
+  <si>
+    <t>A.自由式插花</t>
+  </si>
+  <si>
+    <t>B.前卫式插花</t>
+  </si>
+  <si>
+    <t>C.对称式插花</t>
+  </si>
+  <si>
+    <t>D.抽象式插花</t>
+  </si>
+  <si>
+    <t>33.东方插花艺术起源地为</t>
+  </si>
+  <si>
+    <t>A.泰国</t>
+  </si>
+  <si>
+    <t>B.中国</t>
+  </si>
+  <si>
+    <t>C.日本</t>
+  </si>
+  <si>
+    <t>D.印度</t>
+  </si>
+  <si>
+    <t>34.东方式插花选用花材比较少，花材以（）植物为主。</t>
+  </si>
+  <si>
+    <t>A.木本</t>
+  </si>
+  <si>
+    <t>B.草本</t>
+  </si>
+  <si>
+    <t>C.花本</t>
+  </si>
+  <si>
+    <t>D.叶本</t>
+  </si>
+  <si>
+    <t>35.插花创作可用素材有</t>
+  </si>
+  <si>
+    <t>A.芽</t>
+  </si>
+  <si>
+    <t>B.果</t>
+  </si>
+  <si>
+    <t>C.叶</t>
+  </si>
+  <si>
+    <t>D.枝</t>
+  </si>
+  <si>
+    <t>36.花中四君子是指：</t>
+  </si>
+  <si>
+    <t>A.竹</t>
+  </si>
+  <si>
+    <t>B.兰</t>
+  </si>
+  <si>
+    <t>C.梅</t>
+  </si>
+  <si>
+    <t>D.菊</t>
+  </si>
+  <si>
+    <t>37.‏东方式插花一般采用不对称法则进行构图，布局上讲究</t>
+  </si>
+  <si>
+    <t>A.仰俯呼应</t>
+  </si>
+  <si>
+    <t>B.顾盼生辉</t>
+  </si>
+  <si>
+    <t>C.主次分明</t>
+  </si>
+  <si>
+    <t>D.虚实相间</t>
+  </si>
+  <si>
+    <t>38.文人插花出现在()朝。</t>
+  </si>
+  <si>
+    <t>A.唐</t>
+  </si>
+  <si>
+    <t>B.秦</t>
+  </si>
+  <si>
+    <t>C.清</t>
+  </si>
+  <si>
+    <t>D.宋</t>
+  </si>
+  <si>
+    <t>39日本花道早期常用  ()  支花枝进行构图并常用绿枝叶相配。</t>
+  </si>
+  <si>
+    <t>A.7-9</t>
+  </si>
+  <si>
+    <t>B.1-2</t>
+  </si>
+  <si>
+    <t>C.12-15</t>
+  </si>
+  <si>
+    <t>D.3-5</t>
+  </si>
+  <si>
+    <t>40.中国与日本为代表的东方式插花的艺术特点是崇尚自然，以线条造型为主。 因材取势，朴实素雅重视意境和思想内涵表达。</t>
+  </si>
+  <si>
+    <t>41.西方式插花构图上多采用均衡对称的手法，以求稳定规整，体现人文力量的美。</t>
+  </si>
+  <si>
+    <t>42.东方式插花构图上多采用：均衡、对称的手法，以求稳定、规整，体现人为的美。</t>
+  </si>
+  <si>
+    <t>43.日本插花起源于隋朝。</t>
+  </si>
+  <si>
+    <t>44.日本插花随（）这种形式一起传入日本，并发展为“花道”。</t>
+  </si>
+  <si>
+    <t>A.佛</t>
+  </si>
+  <si>
+    <t>B.道</t>
+  </si>
+  <si>
+    <t>C.儒</t>
+  </si>
+  <si>
+    <t>45.（）既不失去原有植物的自然形态，又可根据需要进行漂白、染色保持原有的颜色。</t>
+  </si>
+  <si>
+    <t>A.干花</t>
+  </si>
+  <si>
+    <t>B.鲜花</t>
+  </si>
+  <si>
+    <t>C.人造花</t>
+  </si>
+  <si>
+    <t>D.仿生花</t>
+  </si>
+  <si>
+    <t>46.‏看起来会拉近距离的红、橙、黄等暖色系颜色。称之为</t>
+  </si>
+  <si>
+    <t>A.前进色</t>
+  </si>
+  <si>
+    <t>B.右倾色</t>
+  </si>
+  <si>
+    <t>C.后褪色</t>
+  </si>
+  <si>
+    <t>D.左倾色</t>
+  </si>
+  <si>
+    <t>47.看起来距离退后的蓝、紫等冷色系颜色。</t>
+  </si>
+  <si>
+    <t>A.右倾色</t>
+  </si>
+  <si>
+    <t>B.前进色</t>
+  </si>
+  <si>
+    <t>C.后退色</t>
+  </si>
+  <si>
+    <t>48.对称平衡缺点是</t>
+  </si>
+  <si>
+    <t>A.给人以高贵的感觉</t>
+  </si>
+  <si>
+    <t>B.给人以庄重的感觉</t>
+  </si>
+  <si>
+    <t>C.给人以飘逸的感觉</t>
+  </si>
+  <si>
+    <t>D.给人以呆板的感觉</t>
+  </si>
+  <si>
+    <t>49.不对称平衡的缺点是</t>
+  </si>
+  <si>
+    <t>A.给人以飘逸的感觉</t>
+  </si>
+  <si>
+    <t>B.给人以活泼的感觉</t>
+  </si>
+  <si>
+    <t>C.给人以多变的感觉</t>
+  </si>
+  <si>
+    <t>D.利用不好会失去平衡感</t>
+  </si>
+  <si>
+    <t>50.列色彩属于插花设计中 距离感中等的中性色的有</t>
+  </si>
+  <si>
+    <t>0;2</t>
+  </si>
+  <si>
+    <t>A.黄绿色</t>
+  </si>
+  <si>
+    <t>B.黄蓝色</t>
+  </si>
+  <si>
+    <t>C.红紫色</t>
+  </si>
+  <si>
+    <t>D.红蓝色</t>
+  </si>
+  <si>
+    <t>51.不对称平衡的优点是</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>A.安静</t>
+  </si>
+  <si>
+    <t>B.活泼</t>
+  </si>
+  <si>
+    <t>C.多变</t>
+  </si>
+  <si>
+    <t>D.稳定</t>
+  </si>
+  <si>
+    <t>52.对称平衡的优点是</t>
+  </si>
+  <si>
+    <t>C.给人以灵活的感觉</t>
+  </si>
+  <si>
+    <t>D.给人以飘逸的感觉</t>
+  </si>
+  <si>
+    <t>53.‏如何在插花作品中达到稳定的效果</t>
+  </si>
+  <si>
+    <t>A.上浅下深</t>
+  </si>
+  <si>
+    <t>B.上散下聚</t>
+  </si>
+  <si>
+    <t>C.上轻下重</t>
+  </si>
+  <si>
+    <t>D.上小下大</t>
+  </si>
+  <si>
+    <t>54.‏插花作品中韵律主要有</t>
+  </si>
+  <si>
+    <t>A.间隔韵律、交替韵律</t>
+  </si>
+  <si>
+    <t>B.渐变韵律、起伏曲折韵律</t>
+  </si>
+  <si>
+    <t>C.连续韵律、间隔韵律</t>
+  </si>
+  <si>
+    <t>D.起伏曲折韵律、拟态韵律</t>
+  </si>
+  <si>
+    <t>55.植物的材质是指植物材料具备的质感。</t>
+  </si>
+  <si>
+    <t>56.面积较小的花材可视作点，但是，在大型作品中，面价较大的花材也可视作点。</t>
+  </si>
+  <si>
+    <t>57.‎蓝、紫是冷色系的色彩。</t>
+  </si>
+  <si>
+    <t>58.‎明度越高、色彩越浅，感觉越轻盈。</t>
+  </si>
+  <si>
+    <t>59.色彩构成包括：色相、明度、纯度。</t>
+  </si>
+  <si>
+    <t>60.对较粗硬的木本花材，可以用（  ）来裁切？</t>
+  </si>
+  <si>
+    <t>A.普通剪刀</t>
+  </si>
+  <si>
+    <t>B.枝剪</t>
+  </si>
+  <si>
+    <t>C.花艺刀</t>
+  </si>
+  <si>
+    <t>D.手锯</t>
+  </si>
+  <si>
+    <t>‏61.花插、花泥都属于（   ）工具？</t>
+  </si>
+  <si>
+    <t>A.辅助</t>
+  </si>
+  <si>
+    <t>B.美化</t>
+  </si>
+  <si>
+    <t>62.比瓶低，比盘高，底可以齐平可以带足是中国传统花器（    ）的特点</t>
+  </si>
+  <si>
+    <t>A.瓶</t>
+  </si>
+  <si>
+    <t>B.碗</t>
+  </si>
+  <si>
+    <t>C.盘</t>
+  </si>
+  <si>
+    <t>D.缸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.垫座通常较 </t>
+  </si>
+  <si>
+    <t>A.低</t>
+  </si>
+  <si>
+    <t>B.高</t>
+  </si>
+  <si>
+    <t>C.圆</t>
+  </si>
+  <si>
+    <t>D.方</t>
+  </si>
+  <si>
+    <t>64.选择花器应该从哪些方面进行考虑</t>
+  </si>
+  <si>
+    <t>A.大小</t>
+  </si>
+  <si>
+    <t>B.形状</t>
+  </si>
+  <si>
+    <t>C.质地</t>
+  </si>
+  <si>
+    <t>D.色彩</t>
+  </si>
+  <si>
+    <t>65.下列植物属于草本的有</t>
+  </si>
+  <si>
+    <t>A.梅花、迎春、腊梅、南天竹</t>
+  </si>
+  <si>
+    <t>B.十大功劳、海棠、火棘、银柳</t>
+  </si>
+  <si>
+    <t>C.石斛兰、文心兰、蛇鞭菊</t>
+  </si>
+  <si>
+    <t>D.唐菖蒲、金鱼草、小苍兰</t>
+  </si>
+  <si>
+    <t>66.下列植物属于木本的有</t>
+  </si>
+  <si>
+    <t>67.特殊形状花材是（  ）的花材</t>
+  </si>
+  <si>
+    <t>A.形状不规则</t>
+  </si>
+  <si>
+    <t>B.结构奇特</t>
+  </si>
+  <si>
+    <t>C.色彩奇特</t>
+  </si>
+  <si>
+    <t>D.形体较大</t>
+  </si>
+  <si>
+    <t>68.花插上如果固定一两支木本花材就会倒伏。</t>
+  </si>
+  <si>
+    <t>69.花插有各种形状，可以根据花器进行选择使用。</t>
+  </si>
+  <si>
+    <t>70.除刺器用于修除月季、玫瑰枝上的刺与多余的叶片。</t>
+  </si>
+  <si>
+    <t>71.细的线状花材可以表现雄壮、阳刚之美。</t>
+  </si>
+  <si>
+    <t>72.当花朵不开或花苞过紧可催开，通常会</t>
+  </si>
+  <si>
+    <t>A.浸入催熟剂溶液中</t>
+  </si>
+  <si>
+    <t>B.轻吹或轻拍花头</t>
+  </si>
+  <si>
+    <t>C.强行揉捏花头，使花瓣散开</t>
+  </si>
+  <si>
+    <t>D.猛吹花头</t>
+  </si>
+  <si>
+    <t>73.穿心法的好处是</t>
+  </si>
+  <si>
+    <t>A.保持外形</t>
+  </si>
+  <si>
+    <t>B.防止花朵失水</t>
+  </si>
+  <si>
+    <t>C.防止花头垂下</t>
+  </si>
+  <si>
+    <t>D.防止花瓣脱落</t>
+  </si>
+  <si>
+    <t>74.当花头过大时，可以做（ ）处理</t>
+  </si>
+  <si>
+    <t>A.穿心</t>
+  </si>
+  <si>
+    <t>B.穿茎</t>
+  </si>
+  <si>
+    <t>C.花托</t>
+  </si>
+  <si>
+    <t>D.分花</t>
+  </si>
+  <si>
+    <t>75.花型过小，花蕾过实，是因为</t>
+  </si>
+  <si>
+    <t>A.人为剥去外围残瓣所致</t>
+  </si>
+  <si>
+    <t>B.花材是清晨是采集，特别新鲜</t>
+  </si>
+  <si>
+    <t>C.品种原因</t>
+  </si>
+  <si>
+    <t>D.花材发育不足</t>
+  </si>
+  <si>
+    <t>76.下列不宜选购的花材情况有</t>
+  </si>
+  <si>
+    <t>A.花枝较短</t>
+  </si>
+  <si>
+    <t>B.一枝花上，有花蕾，有半开，有全开</t>
+  </si>
+  <si>
+    <t>C.花朵大部分已开</t>
+  </si>
+  <si>
+    <t>D.花蕾较实</t>
+  </si>
+  <si>
+    <t>77.草本花材的处理方法有</t>
+  </si>
+  <si>
+    <t>A.锁花法</t>
+  </si>
+  <si>
+    <t>B.金属丝穿茎法</t>
+  </si>
+  <si>
+    <t>C.穿心法</t>
+  </si>
+  <si>
+    <t>D.金属丝缠绕法</t>
+  </si>
+  <si>
+    <t>78.对于空心茎的花材，为了避免折断花材，可以使用金属丝穿茎法。</t>
+  </si>
+  <si>
+    <t>79.花材的固定方法有</t>
+  </si>
+  <si>
+    <t>A.撒固定、 花插固定、基座固定</t>
+  </si>
+  <si>
+    <t>B.撒固定、花泥固定、基座固定</t>
+  </si>
+  <si>
+    <t>C.撒固定、花泥固定、花插固定</t>
+  </si>
+  <si>
+    <t>D.基座固定、花泥固定、花插固定</t>
+  </si>
+  <si>
+    <t>80.修叶法适用于（  ）的叶片花材</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>A.菖蒲</t>
+  </si>
+  <si>
+    <t>B.八角金盘</t>
+  </si>
+  <si>
+    <t>C.铁树</t>
+  </si>
+  <si>
+    <t>D.棕榈叶</t>
+  </si>
+  <si>
+    <t>81.拉丝法适用于叶长且阔的叶片，例如巴西铁叶片。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方传统插花艺术追求的最高境界为？</t>
+    </r>
+  </si>
+  <si>
+    <t>A.造型美</t>
+  </si>
+  <si>
+    <t>B.色彩美</t>
+  </si>
+  <si>
+    <t>C.艺术美</t>
+  </si>
+  <si>
+    <t>D.意境美</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方传统插花作品“小荷才露尖尖角”是通过什么方式进行命名的？</t>
+    </r>
+  </si>
+  <si>
+    <t>A.诗句</t>
+  </si>
+  <si>
+    <t>C.花材象征意义</t>
+  </si>
+  <si>
+    <t>D.地域风光</t>
+  </si>
+  <si>
+    <t>3.东方传统插花创作步骤的第一步是？</t>
+  </si>
+  <si>
+    <t>A.构图设计</t>
+  </si>
+  <si>
+    <t>B.选择材料</t>
+  </si>
+  <si>
+    <t>C.立意构思</t>
+  </si>
+  <si>
+    <t>D.造型创作</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方传统插花的艺术风格有哪些？</t>
+    </r>
+  </si>
+  <si>
+    <t>A.圣洁至尊</t>
+  </si>
+  <si>
+    <t>B.自然之真</t>
+  </si>
+  <si>
+    <t>C.人文之善</t>
+  </si>
+  <si>
+    <t>D.艺术之美</t>
+  </si>
+  <si>
+    <t>5.东方传统插花创作在选材上常用什么花材？</t>
+  </si>
+  <si>
+    <t>1;3</t>
+  </si>
+  <si>
+    <t>A.草本花材</t>
+  </si>
+  <si>
+    <t>B.木本花材</t>
+  </si>
+  <si>
+    <t>C.色彩艳丽的花材</t>
+  </si>
+  <si>
+    <t>D.色彩淡雅的花材</t>
+  </si>
+  <si>
+    <t>6.被视为“出污泥而不染”，代表圣洁清灵，常用于禅房清供插花的是下列哪种花材？</t>
+  </si>
+  <si>
+    <t>A.梅花</t>
+  </si>
+  <si>
+    <t>B.牡丹</t>
+  </si>
+  <si>
+    <t>C.荷花</t>
+  </si>
+  <si>
+    <t>D.灵芝</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国插花花材选用比较严格，强调象征意义和时令感，果实和其它配件也都具有象征意义。下列代表“长寿”的是？</t>
+    </r>
+  </si>
+  <si>
+    <t>A.桃</t>
+  </si>
+  <si>
+    <t>B.葫芦</t>
+  </si>
+  <si>
+    <t>C.石榴</t>
+  </si>
+  <si>
+    <t>D.苹果</t>
+  </si>
+  <si>
+    <t>8.宫庭插花可追溯至哪个朝代？</t>
+  </si>
+  <si>
+    <t>A.宋代</t>
+  </si>
+  <si>
+    <t>B.明代</t>
+  </si>
+  <si>
+    <t>C.周代</t>
+  </si>
+  <si>
+    <t>D.唐代</t>
+  </si>
+  <si>
+    <t>9.佛事供花源于给佛供养的花卉，是随着印度佛教一同传入我国的。有两种基本形式：一种是用于佛教仪式与佛前供奉的花；另一种形式则是禅室插花，为佛家禅僧日常起居处陈设之花。下列常用于寺庙插花的花材有？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A.柳枝</t>
+    </r>
+  </si>
+  <si>
+    <t>B.百合</t>
+  </si>
+  <si>
+    <t>C.玫瑰</t>
+  </si>
+  <si>
+    <t>D.荷花</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国插花十分强调花材线条的运用。下列对线条的描述正确的是？</t>
+    </r>
+  </si>
+  <si>
+    <t>A.横向平伸的花枝具有平静、安详之趣。</t>
+  </si>
+  <si>
+    <t>B.曲折逶迤的花枝富有韵味和生命意义</t>
+  </si>
+  <si>
+    <t>C.挺拔向上的花枝具有阳刚之气。</t>
+  </si>
+  <si>
+    <t>D.中国传统插花常以木本植物的花枝构成骨架</t>
+  </si>
+  <si>
+    <t>11.中国插花艺术从先秦的原始阶段，到汉魏南北朝的初始阶段，至隋唐开始盛行，宋代转入精雅，明代达到高峰。可惜至清代末年走向衰微。</t>
+  </si>
+  <si>
+    <t>12.筒花是东方式插花中最重要的一种表现形式，也是中国传统插花中最富特色、最具代表性的一种花型。</t>
+  </si>
+  <si>
+    <t>13.盘花一般易插折枝、团花等。高洁端庄，轻巧利落，多在寺庙插花中应用，置于禅房或佛像前。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用竹筒、木漆筒、笔筒等筒状容器插制的花称为筒花。筒花源于我国哪个朝代？</t>
+    </r>
+  </si>
+  <si>
+    <t>B.唐代</t>
+  </si>
+  <si>
+    <t>C.明代</t>
+  </si>
+  <si>
+    <t>D.五代时期</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在筒花的制作视频中，为了方便初学者学习，使用的是（）固定花材。</t>
+    </r>
+  </si>
+  <si>
+    <t>A.干花泥</t>
+  </si>
+  <si>
+    <t>B.剑山</t>
+  </si>
+  <si>
+    <t>C.鲜花泥</t>
+  </si>
+  <si>
+    <t>D.撒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月季花的故乡是</t>
+    </r>
+  </si>
+  <si>
+    <t>A.中国</t>
+  </si>
+  <si>
+    <t>B.英国</t>
+  </si>
+  <si>
+    <t>D.法国</t>
+  </si>
+  <si>
+    <t>17.盘花的制作视频中，完成的餐桌花作品属于（ ）作品。</t>
+  </si>
+  <si>
+    <t>A.三点插</t>
+  </si>
+  <si>
+    <t>B.两点插</t>
+  </si>
+  <si>
+    <t>C.一点插</t>
+  </si>
+  <si>
+    <t>D.多点插</t>
   </si>
 </sst>
 </file>
@@ -83,12 +1697,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,10 +1711,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,6 +1744,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -118,15 +1774,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +1820,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -187,11 +1836,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,35 +1868,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,7 +1883,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +1949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +1991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +2009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +2039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,43 +2051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,55 +2063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +2080,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +2103,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,7 +2137,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +2145,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,182 +2180,180 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,116 +2703,2695 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="26" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="26" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="25.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76.9907407407407" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.962962962963" style="2" customWidth="1"/>
+    <col min="4" max="5" width="25.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.4259259259259" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="25.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="40" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="41" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="48" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="44" customHeight="1" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="33" customHeight="1" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="50" customHeight="1" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
+      <c r="A58" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" ht="50" customHeight="1" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" ht="55" customHeight="1" spans="1:7">
+      <c r="A61" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" ht="61" customHeight="1" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" ht="43" customHeight="1" spans="1:7">
+      <c r="A65" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
+      <c r="A75" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" ht="58" customHeight="1" spans="1:7">
+      <c r="A76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G80" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:7">
+      <c r="A84" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:7">
+      <c r="A85" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:7">
+      <c r="A86" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G86" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G87" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
+      <c r="A88" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:7">
+      <c r="A89" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:7">
+      <c r="A90" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G92" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
+      <c r="A93" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G93" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
+      <c r="A96" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G96" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
+      <c r="A97" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G97" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
+      <c r="A98" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
+      <c r="A99" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G99" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G100" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
+      <c r="A101" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
+      <c r="A102" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
+      <c r="A103" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
+      <c r="A104" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G104" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
+      <c r="A105" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G105" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:6">
+      <c r="A106" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:6">
+      <c r="A107" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:6">
+      <c r="A108" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:6">
+      <c r="A109" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
+      <c r="A110" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
+      <c r="A111" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
+      <c r="A112" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
+      <c r="A113" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:6">
+      <c r="A115" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
+      <c r="A116" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:6">
+      <c r="A117" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:6">
+      <c r="A118" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -1175,14 +5404,83 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1198,7 +5496,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/插花/Excel配置表/Question.xlsx
+++ b/插花/Excel配置表/Question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="23328" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2705,7 +2705,7 @@
   <sheetPr/>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>

--- a/插花/Excel配置表/Question.xlsx
+++ b/插花/Excel配置表/Question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23328" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1254,33 +1254,7 @@
     <t>81.拉丝法适用于叶长且阔的叶片，例如巴西铁叶片。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东方传统插花艺术追求的最高境界为？</t>
-    </r>
+    <t>1.‎东方传统插花艺术追求的最高境界为？</t>
   </si>
   <si>
     <t>A.造型美</t>
@@ -1295,33 +1269,7 @@
     <t>D.意境美</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东方传统插花作品“小荷才露尖尖角”是通过什么方式进行命名的？</t>
-    </r>
+    <t>2.‎东方传统插花作品“小荷才露尖尖角”是通过什么方式进行命名的？</t>
   </si>
   <si>
     <t>A.诗句</t>
@@ -1348,33 +1296,7 @@
     <t>D.造型创作</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东方传统插花的艺术风格有哪些？</t>
-    </r>
+    <t>4.‏东方传统插花的艺术风格有哪些？</t>
   </si>
   <si>
     <t>A.圣洁至尊</t>
@@ -1422,33 +1344,7 @@
     <t>D.灵芝</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国插花花材选用比较严格，强调象征意义和时令感，果实和其它配件也都具有象征意义。下列代表“长寿”的是？</t>
-    </r>
+    <t>7.‏中国插花花材选用比较严格，强调象征意义和时令感，果实和其它配件也都具有象征意义。下列代表“长寿”的是？</t>
   </si>
   <si>
     <t>A.桃</t>
@@ -1481,24 +1377,7 @@
     <t>9.佛事供花源于给佛供养的花卉，是随着印度佛教一同传入我国的。有两种基本形式：一种是用于佛教仪式与佛前供奉的花；另一种形式则是禅室插花，为佛家禅僧日常起居处陈设之花。下列常用于寺庙插花的花材有？</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A.柳枝</t>
-    </r>
+    <t>‎A.柳枝</t>
   </si>
   <si>
     <t>B.百合</t>
@@ -1510,33 +1389,7 @@
     <t>D.荷花</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国插花十分强调花材线条的运用。下列对线条的描述正确的是？</t>
-    </r>
+    <t>10.‎中国插花十分强调花材线条的运用。下列对线条的描述正确的是？</t>
   </si>
   <si>
     <t>A.横向平伸的花枝具有平静、安详之趣。</t>
@@ -1560,33 +1413,7 @@
     <t>13.盘花一般易插折枝、团花等。高洁端庄，轻巧利落，多在寺庙插花中应用，置于禅房或佛像前。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用竹筒、木漆筒、笔筒等筒状容器插制的花称为筒花。筒花源于我国哪个朝代？</t>
-    </r>
+    <t>14.‎使用竹筒、木漆筒、笔筒等筒状容器插制的花称为筒花。筒花源于我国哪个朝代？</t>
   </si>
   <si>
     <t>B.唐代</t>
@@ -1598,33 +1425,7 @@
     <t>D.五代时期</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在筒花的制作视频中，为了方便初学者学习，使用的是（）固定花材。</t>
-    </r>
+    <t>15.‏在筒花的制作视频中，为了方便初学者学习，使用的是（）固定花材。</t>
   </si>
   <si>
     <t>A.干花泥</t>
@@ -1639,33 +1440,7 @@
     <t>D.撒</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月季花的故乡是</t>
-    </r>
+    <t>16.‎月季花的故乡是</t>
   </si>
   <si>
     <t>A.中国</t>
@@ -1697,12 +1472,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,29 +1486,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1744,29 +1500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1774,16 +1507,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1820,6 +1552,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1836,10 +1576,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1868,7 +1609,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,13 +1652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,73 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,13 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,13 +1712,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,37 +1802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,7 +1814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,15 +1843,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2103,17 +1857,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2137,7 +1880,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,8 +1888,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,6 +1923,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2188,10 +1951,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2200,137 +1963,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2342,18 +2105,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2705,17 +2456,18 @@
   <sheetPr/>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G102" sqref="A102:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="26" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="76.9907407407407" style="2" customWidth="1"/>
+    <col min="1" max="1" width="117.05" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.962962962963" style="2" customWidth="1"/>
-    <col min="4" max="5" width="25.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.4259259259259" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.4666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.7166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.425" style="2" customWidth="1"/>
     <col min="7" max="16384" width="25.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4589,16 +4341,16 @@
       <c r="B82" s="2">
         <v>3</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G82" s="2">
@@ -4612,16 +4364,16 @@
       <c r="B83" s="2">
         <v>0</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="2" t="s">
         <v>348</v>
       </c>
       <c r="G83" s="2">
@@ -4635,16 +4387,16 @@
       <c r="B84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="2" t="s">
         <v>353</v>
       </c>
       <c r="G84" s="2">
@@ -4658,16 +4410,16 @@
       <c r="B85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="2" t="s">
         <v>358</v>
       </c>
       <c r="G85" s="2">
@@ -4681,16 +4433,16 @@
       <c r="B86" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="2" t="s">
         <v>358</v>
       </c>
       <c r="G86" s="2">
@@ -4704,16 +4456,16 @@
       <c r="B87" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G87" s="2">
@@ -4721,7 +4473,7 @@
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B88" s="2">
@@ -4819,16 +4571,16 @@
       <c r="B92" s="2">
         <v>1</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="2" t="s">
         <v>373</v>
       </c>
       <c r="G92" s="2">
@@ -4842,16 +4594,16 @@
       <c r="B93" s="2">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="2" t="s">
         <v>378</v>
       </c>
       <c r="G93" s="2">
@@ -4865,16 +4617,16 @@
       <c r="B94" s="2">
         <v>3</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="2" t="s">
         <v>383</v>
       </c>
       <c r="G94" s="2">
@@ -4888,16 +4640,16 @@
       <c r="B95" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="2" t="s">
         <v>388</v>
       </c>
       <c r="G95" s="2">
@@ -4905,22 +4657,22 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>393</v>
       </c>
       <c r="G96" s="2">
@@ -4934,16 +4686,16 @@
       <c r="B97" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="2" t="s">
         <v>398</v>
       </c>
       <c r="G97" s="2">
@@ -4980,16 +4732,16 @@
       <c r="B99" s="2">
         <v>2</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G99" s="2">
@@ -5003,16 +4755,16 @@
       <c r="B100" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="2" t="s">
         <v>410</v>
       </c>
       <c r="G100" s="2">
@@ -5043,22 +4795,22 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B102" s="2">
         <v>3</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="2" t="s">
         <v>416</v>
       </c>
       <c r="G102" s="2">
@@ -5066,22 +4818,22 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="2" t="s">
         <v>420</v>
       </c>
       <c r="G103" s="2">
@@ -5089,22 +4841,22 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B104" s="2">
         <v>2</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="2" t="s">
         <v>425</v>
       </c>
       <c r="G104" s="2">
@@ -5112,150 +4864,168 @@
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="2" t="s">
         <v>430</v>
       </c>
       <c r="G105" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:6">
-      <c r="A106" s="4" t="s">
+    <row r="106" customHeight="1" spans="1:7">
+      <c r="A106" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:6">
-      <c r="A107" s="4" t="s">
+      <c r="G106" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
+      <c r="A107" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B107" s="2">
         <v>2</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:6">
-      <c r="A108" s="4" t="s">
+      <c r="G107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:7">
+      <c r="A108" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:6">
-      <c r="A109" s="4" t="s">
+      <c r="G108" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:7">
+      <c r="A109" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B109" s="2">
         <v>2</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:6">
-      <c r="A110" s="5" t="s">
+      <c r="G109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
+      <c r="A110" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:6">
-      <c r="A111" s="7" t="s">
+      <c r="G110" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:7">
+      <c r="A111" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:6">
-      <c r="A112" s="7" t="s">
+      <c r="G111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
+      <c r="A112" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B112" s="2">
@@ -5273,9 +5043,12 @@
       <c r="F112" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:6">
-      <c r="A113" s="7" t="s">
+      <c r="G112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B113" s="2">
@@ -5293,9 +5066,12 @@
       <c r="F113" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:6">
-      <c r="A114" s="7" t="s">
+      <c r="G113" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
+      <c r="A114" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="2">
@@ -5313,85 +5089,100 @@
       <c r="F114" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:6">
-      <c r="A115" s="7" t="s">
+      <c r="G114" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
+      <c r="A115" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B115" s="2">
         <v>3</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:6">
-      <c r="A116" s="7" t="s">
+      <c r="G115" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
+      <c r="A116" s="2" t="s">
         <v>469</v>
       </c>
       <c r="B116" s="2">
         <v>2</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:6">
-      <c r="A117" s="7" t="s">
+      <c r="G116" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
+      <c r="A117" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:6">
-      <c r="A118" s="7" t="s">
+      <c r="G117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
+      <c r="A118" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="2" t="s">
         <v>482</v>
+      </c>
+      <c r="G118" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5410,7 +5201,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2"/>
@@ -5496,7 +5287,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/插花/Excel配置表/Question.xlsx
+++ b/插花/Excel配置表/Question.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="577">
   <si>
     <t>问题</t>
   </si>
@@ -1255,17 +1255,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1274,7 +1268,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -1296,17 +1290,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>2.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1315,7 +1303,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -1349,17 +1337,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>4.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1368,7 +1350,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -1423,17 +1405,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>7.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1442,7 +1418,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
@@ -1482,8 +1458,34 @@
   </si>
   <si>
     <r>
+      <t>‎</t>
+    </r>
+    <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A.柳枝</t>
+    </r>
+  </si>
+  <si>
+    <t>B.百合</t>
+  </si>
+  <si>
+    <t>C.玫瑰</t>
+  </si>
+  <si>
+    <t>D.荷花</t>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1492,36 +1494,42 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>A.柳枝</t>
+      <t>中国插花十分强调花材线条的运用。下列对线条的描述正确的是？</t>
     </r>
   </si>
   <si>
-    <t>B.百合</t>
-  </si>
-  <si>
-    <t>C.玫瑰</t>
-  </si>
-  <si>
-    <t>D.荷花</t>
+    <t>A.横向平伸的花枝具有平静、安详之趣。</t>
+  </si>
+  <si>
+    <t>B.曲折逶迤的花枝富有韵味和生命意义</t>
+  </si>
+  <si>
+    <t>C.挺拔向上的花枝具有阳刚之气。</t>
+  </si>
+  <si>
+    <t>D.中国传统插花常以木本植物的花枝构成骨架</t>
+  </si>
+  <si>
+    <t>11.中国插花艺术从先秦的原始阶段，到汉魏南北朝的初始阶段，至隋唐开始盛行，宋代转入精雅，明代达到高峰。可惜至清代末年走向衰微。</t>
+  </si>
+  <si>
+    <t>12.筒花是东方式插花中最重要的一种表现形式，也是中国传统插花中最富特色、最具代表性的一种花型。</t>
+  </si>
+  <si>
+    <t>13.盘花一般易插折枝、团花等。高洁端庄，轻巧利落，多在寺庙插花中应用，置于禅房或佛像前。</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.</t>
+      <t>14.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1530,48 +1538,65 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>中国插花十分强调花材线条的运用。下列对线条的描述正确的是？</t>
+      <t>使用竹筒、木漆筒、笔筒等筒状容器插制的花称为筒花。筒花源于我国哪个朝代？</t>
     </r>
   </si>
   <si>
-    <t>A.横向平伸的花枝具有平静、安详之趣。</t>
-  </si>
-  <si>
-    <t>B.曲折逶迤的花枝富有韵味和生命意义</t>
-  </si>
-  <si>
-    <t>C.挺拔向上的花枝具有阳刚之气。</t>
-  </si>
-  <si>
-    <t>D.中国传统插花常以木本植物的花枝构成骨架</t>
-  </si>
-  <si>
-    <t>11.中国插花艺术从先秦的原始阶段，到汉魏南北朝的初始阶段，至隋唐开始盛行，宋代转入精雅，明代达到高峰。可惜至清代末年走向衰微。</t>
-  </si>
-  <si>
-    <t>12.筒花是东方式插花中最重要的一种表现形式，也是中国传统插花中最富特色、最具代表性的一种花型。</t>
-  </si>
-  <si>
-    <t>13.盘花一般易插折枝、团花等。高洁端庄，轻巧利落，多在寺庙插花中应用，置于禅房或佛像前。</t>
-  </si>
-  <si>
+    <t>B.唐代</t>
+  </si>
+  <si>
+    <t>C.明代</t>
+  </si>
+  <si>
+    <t>D.五代时期</t>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
+    </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>14.</t>
+      <t>在筒花的制作视频中，为了方便初学者学习，使用的是（）固定花材。</t>
+    </r>
+  </si>
+  <si>
+    <t>A.干花泥</t>
+  </si>
+  <si>
+    <t>B.剑山</t>
+  </si>
+  <si>
+    <t>C.鲜花泥</t>
+  </si>
+  <si>
+    <t>D.撒</t>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1580,36 +1605,304 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>使用竹筒、木漆筒、笔筒等筒状容器插制的花称为筒花。筒花源于我国哪个朝代？</t>
+      <t>月季花的故乡是</t>
     </r>
   </si>
   <si>
-    <t>B.唐代</t>
-  </si>
-  <si>
-    <t>C.明代</t>
-  </si>
-  <si>
-    <t>D.五代时期</t>
-  </si>
-  <si>
+    <t>A.中国</t>
+  </si>
+  <si>
+    <t>B.英国</t>
+  </si>
+  <si>
+    <t>D.法国</t>
+  </si>
+  <si>
+    <t>17.‏花材修剪时，需要除去下列哪些枝条？</t>
+  </si>
+  <si>
+    <t>A.病态枝</t>
+  </si>
+  <si>
+    <t>B.交叉枝</t>
+  </si>
+  <si>
+    <t>C.平行枝</t>
+  </si>
+  <si>
+    <t>D.逆行枝</t>
+  </si>
+  <si>
+    <t>18.月季、玫瑰和蔷薇在国外统称Rose，它们是同一种植物不同的叫法。</t>
+  </si>
+  <si>
+    <t>19.月季是世界四大切花之一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.中国明代几部重要的插花专著，如高濂的《瓶花三说》，袁宏道的《瓶史》，张谦德的《瓶花谱》，都是以（ ）为例进行介绍的。  </t>
+  </si>
+  <si>
+    <t>A.碗花</t>
+  </si>
+  <si>
+    <t>B.缸花</t>
+  </si>
+  <si>
+    <t>C.瓶花</t>
+  </si>
+  <si>
+    <t>D.篮花</t>
+  </si>
+  <si>
+    <t>21.撒的形状有哪些？</t>
+  </si>
+  <si>
+    <t>A.Y字撒</t>
+  </si>
+  <si>
+    <t>B.井字撒</t>
+  </si>
+  <si>
+    <t>C.十字撒</t>
+  </si>
+  <si>
+    <t>D.一字撒</t>
+  </si>
+  <si>
+    <t>22.插花修枝时，要注意疏密结合，做到“疏可走马，密不透风”。</t>
+  </si>
+  <si>
+    <t>23.插制铁炮百合时，要将未开的花苞放在上方，开放的放在下面，以保证作品的稳定性。</t>
+  </si>
+  <si>
+    <t>24.用剑山固定花材时，对于稍粗大的枝条，要在基部剖一个十字，其作用是利于花枝插入剑山中。</t>
+  </si>
+  <si>
+    <t>25.东方传统插花中，通常使用朽木，其作用是使作品古朴自然。</t>
+  </si>
+  <si>
+    <t>1.‏下列哪种花卉是母亲节的代表花卉，常用作怀念和敬献母亲、教师的礼物。（）</t>
+  </si>
+  <si>
+    <t>A.菊花</t>
+  </si>
+  <si>
+    <t>B.洋桔梗</t>
+  </si>
+  <si>
+    <t>D.康乃馨</t>
+  </si>
+  <si>
+    <t>2.插制三角型花型时，花型的宽度通常为高度的多少倍？（）</t>
+  </si>
+  <si>
+    <t>A.2</t>
+  </si>
+  <si>
+    <t>B.0.5</t>
+  </si>
+  <si>
+    <t>C.1.5</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>3.‎下列花型中，哪种花型的宽度以不超过花器宽度为宜？（）</t>
+  </si>
+  <si>
+    <t>B.圆锥型</t>
+  </si>
+  <si>
+    <t>C.垂直型</t>
+  </si>
+  <si>
+    <t>D.水平型</t>
+  </si>
+  <si>
+    <t>4.下列哪种花型又称为千朵花型，属于四面观赏花型，稳重而庄严,常用于宾馆和酒店的大堂插花?</t>
+  </si>
+  <si>
+    <t>A.弯月型</t>
+  </si>
+  <si>
+    <t>C.半球型</t>
+  </si>
+  <si>
+    <t>D.圆锥型</t>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>15.</t>
+      <t>下列西方式花型中，属于对称式花型的有哪些？（）</t>
+    </r>
+  </si>
+  <si>
+    <t>A.扇型</t>
+  </si>
+  <si>
+    <t>C.倒T型</t>
+  </si>
+  <si>
+    <t>D.L型</t>
+  </si>
+  <si>
+    <t>6.西方插花艺术发展史中，中世纪花艺多以宗教为主题，花材被赋予了宗教含意。例如：百合、鸢尾、雪钟花象征玛丽亚，耧斗菜象征圣灵，粉色石竹象征神的爱。</t>
+  </si>
+  <si>
+    <t>7.古埃及人常把植物串成花冠，由花冠衍生出花环、花圈、花索等形式。</t>
+  </si>
+  <si>
+    <t>8.古埃及的原始花艺最早发现于象征埃及古老文明的金字塔内。在墓室的壁画上可以看到以睡莲花与叶为素材的类似于花束的供花。</t>
+  </si>
+  <si>
+    <t>9.1960年荷兰插花艺术家安德鲁·汉德森提出平行线造型设计原理，成为传统插花与现代插花的历史分界线。</t>
+  </si>
+  <si>
+    <t>10.把一些长茎花材或类似的辅助材料，折叠成各种几何图形应用于造型中，可以扩大空间，增加层次感、活跃感的表现手法是哪一种？</t>
+  </si>
+  <si>
+    <t>A.层叠</t>
+  </si>
+  <si>
+    <t>B.透视</t>
+  </si>
+  <si>
+    <t>C.折叠</t>
+  </si>
+  <si>
+    <t>D.重叠</t>
+  </si>
+  <si>
+    <t>11.‏利用平面状的花或叶，一片片立体地依次重叠在一起，以平面平铺的技巧表现层次美感的表现手法是哪一种？</t>
+  </si>
+  <si>
+    <t>B.铺陈</t>
+  </si>
+  <si>
+    <t>C.重叠</t>
+  </si>
+  <si>
+    <t>D.折叠</t>
+  </si>
+  <si>
+    <t>12.把蔓藤类植物或植物细长的叶片、纤维，以及异质材料如条绳、金属线等，按一定规则缠绕出一定造型,增强作品曲线美、质感变化、趣味性、空间感。这种表现手法称为？</t>
+  </si>
+  <si>
+    <t>A.缠绕</t>
+  </si>
+  <si>
+    <t>B.捆绑</t>
+  </si>
+  <si>
+    <t>C.加框</t>
+  </si>
+  <si>
+    <t>D.饰绑</t>
+  </si>
+  <si>
+    <t>13.下列哪种设计名称出自珠宝设计技巧，即将所有相同大小的宝石紧密镶饰于底部，表面光滑，没有任何突出物，来表现珠宝连续的表面效果。</t>
+  </si>
+  <si>
+    <t>A.卷筒</t>
+  </si>
+  <si>
+    <t>C.编织</t>
+  </si>
+  <si>
+    <t>D.锥杯</t>
+  </si>
+  <si>
+    <t>14.常用来做架构的植物材料有哪些？</t>
+  </si>
+  <si>
+    <t>A.伯利恒之星</t>
+  </si>
+  <si>
+    <t>B.竹子</t>
+  </si>
+  <si>
+    <t>C.龙柳</t>
+  </si>
+  <si>
+    <t>D.柽柳</t>
+  </si>
+  <si>
+    <t>15.由于串挂材料在花艺作品中处于脱水状态，因此，尽量选择可自然干燥的花材，以及干燥后不易变形、变色的花材。</t>
+  </si>
+  <si>
+    <t>16.加框的设计动机源于艺术画作的画框。一幅好的绘画作品，必须得有一幅相得益彰的画框来搭配。除了用非植物材料，如现成的画框、金属、塑料，还可以用线形植物素材，如柳条、藤条等。</t>
+  </si>
+  <si>
+    <t>17.架构常使用竹子、柽柳等植物材料搭建骨架，也可使用钢管、玻璃等非植物材料。架构的造型可以是规整的，也可以是随意的。</t>
+  </si>
+  <si>
+    <t>18.串挂设计常用的串具有线、金属丝、竹针等，不可以用鲜活的植物材料。</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花束的手柄是供手握的部分，制作花束时一般手柄最短为多少里米？（）</t>
+    </r>
+  </si>
+  <si>
+    <t>A.15厘米</t>
+  </si>
+  <si>
+    <t>B.10厘米</t>
+  </si>
+  <si>
+    <t>C.20厘米</t>
+  </si>
+  <si>
+    <t>D.5厘米</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -1618,78 +1911,113 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>在筒花的制作视频中，为了方便初学者学习，使用的是（）固定花材。</t>
+      <t>关于四面观和单面观花束的制作方法？</t>
     </r>
   </si>
   <si>
-    <t>A.干花泥</t>
-  </si>
-  <si>
-    <t>B.剑山</t>
-  </si>
-  <si>
-    <t>C.鲜花泥</t>
-  </si>
-  <si>
-    <t>D.撒</t>
-  </si>
-  <si>
+    <t>A.都采用交叉法</t>
+  </si>
+  <si>
+    <t>B.四面观花束常采用螺旋法，单面观花束常采用交叉法。</t>
+  </si>
+  <si>
+    <t>C.都采用螺旋法</t>
+  </si>
+  <si>
+    <t>D.四面观花束常采用交叉法，单面观花束常采用螺旋法。</t>
+  </si>
+  <si>
+    <t>3.花束制作时需注意问题？</t>
+  </si>
+  <si>
+    <t>A.注意花束整体造型。</t>
+  </si>
+  <si>
+    <t>B.注意花束花材间的均匀一致。</t>
+  </si>
+  <si>
+    <t>C.以上内容都包括。</t>
+  </si>
+  <si>
+    <t>D.注意花束选材间的色彩搭配。</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>16.</t>
+      <t>花束一般由哪三部分组成？</t>
+    </r>
+  </si>
+  <si>
+    <t>A.装饰</t>
+  </si>
+  <si>
+    <t>B.包装纸</t>
+  </si>
+  <si>
+    <t>C.手柄</t>
+  </si>
+  <si>
+    <t>D.花体</t>
+  </si>
+  <si>
+    <t>5.在造型上，花束可分为？</t>
+  </si>
+  <si>
+    <t>A.一般花束</t>
+  </si>
+  <si>
+    <t>B.单面观花束</t>
+  </si>
+  <si>
+    <t>C.特殊花束</t>
+  </si>
+  <si>
+    <t>D.四面观花束</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>‎</t>
+      <t>‏</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>月季花的故乡是</t>
+      <t>花束的装饰部分是指花束的花体与手柄部分之间的装饰体，其主要起到补充与点缀，并非主体，所以这个部分使用与否要根据花束的实际需要确定。</t>
     </r>
-  </si>
-  <si>
-    <t>A.中国</t>
-  </si>
-  <si>
-    <t>B.英国</t>
-  </si>
-  <si>
-    <t>D.法国</t>
-  </si>
-  <si>
-    <t>17.盘花的制作视频中，完成的餐桌花作品属于（ ）作品。</t>
-  </si>
-  <si>
-    <t>A.三点插</t>
-  </si>
-  <si>
-    <t>B.两点插</t>
-  </si>
-  <si>
-    <t>C.一点插</t>
-  </si>
-  <si>
-    <t>D.多点插</t>
   </si>
 </sst>
 </file>
@@ -1698,9 +2026,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1718,23 +2046,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1745,7 +2066,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1753,7 +2074,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1774,18 +2103,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1829,15 +2158,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1845,7 +2167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1859,9 +2181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1869,6 +2190,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,43 +2217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,7 +2247,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,19 +2277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,13 +2307,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,49 +2367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2051,25 +2379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,6 +2420,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2103,17 +2442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2138,15 +2466,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,6 +2499,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2188,10 +2516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2200,16 +2528,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2221,10 +2549,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2233,104 +2561,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2338,9 +2666,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2348,12 +2679,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2703,13 +3028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="26" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="25.4" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="76.9907407407407" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
@@ -2903,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="48" customHeight="1" spans="1:7">
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2926,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1" spans="1:7">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -2972,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:7">
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -2995,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="40" customHeight="1" spans="1:7">
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -3018,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="41" customHeight="1" spans="1:7">
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -3041,7 +3366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="48" customHeight="1" spans="1:7">
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -3409,7 +3734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="44" customHeight="1" spans="1:7">
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>147</v>
       </c>
@@ -3425,14 +3750,14 @@
       <c r="E31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="33" customHeight="1" spans="1:7">
+    <row r="32" ht="43" customHeight="1" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>153</v>
       </c>
@@ -3455,8 +3780,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" ht="50" customHeight="1" spans="1:7">
-      <c r="A33" s="3" t="s">
+    <row r="33" ht="43" customHeight="1" spans="1:7">
+      <c r="A33" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B33" s="2">
@@ -3478,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" ht="53" customHeight="1" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>159</v>
       </c>
@@ -3501,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" ht="74" customHeight="1" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>160</v>
       </c>
@@ -3892,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:7">
+    <row r="52" ht="60" customHeight="1" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>229</v>
       </c>
@@ -4076,7 +4401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" ht="50" customHeight="1" spans="1:7">
+    <row r="60" ht="65" customHeight="1" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>269</v>
       </c>
@@ -4099,8 +4424,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" ht="55" customHeight="1" spans="1:7">
-      <c r="A61" s="3" t="s">
+    <row r="61" ht="56" customHeight="1" spans="1:7">
+      <c r="A61" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B61" s="2">
@@ -4122,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" ht="61" customHeight="1" spans="1:7">
+    <row r="62" ht="51" customHeight="1" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>271</v>
       </c>
@@ -4168,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:7">
+    <row r="64" ht="33" customHeight="1" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>273</v>
       </c>
@@ -4191,8 +4516,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" ht="43" customHeight="1" spans="1:7">
-      <c r="A65" s="3" t="s">
+    <row r="65" ht="45" customHeight="1" spans="1:7">
+      <c r="A65" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B65" s="2">
@@ -4444,7 +4769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" ht="58" customHeight="1" spans="1:7">
+    <row r="76" ht="47" customHeight="1" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>327</v>
       </c>
@@ -4582,23 +4907,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="3" t="s">
+    <row r="82" ht="57" customHeight="1" spans="1:7">
+      <c r="A82" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B82" s="2">
         <v>3</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>343</v>
       </c>
       <c r="G82" s="2">
@@ -4612,16 +4937,16 @@
       <c r="B83" s="2">
         <v>0</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>348</v>
       </c>
       <c r="G83" s="2">
@@ -4635,62 +4960,62 @@
       <c r="B84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>353</v>
       </c>
       <c r="G84" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:7">
+    <row r="85" ht="51" customHeight="1" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>358</v>
       </c>
       <c r="G85" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:7">
+    <row r="86" ht="48" customHeight="1" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>358</v>
       </c>
       <c r="G86" s="2">
@@ -4704,16 +5029,16 @@
       <c r="B87" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>364</v>
       </c>
       <c r="G87" s="2">
@@ -4721,7 +5046,7 @@
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B88" s="2">
@@ -4819,16 +5144,16 @@
       <c r="B92" s="2">
         <v>1</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G92" s="2">
@@ -4842,16 +5167,16 @@
       <c r="B93" s="2">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>378</v>
       </c>
       <c r="G93" s="2">
@@ -4865,16 +5190,16 @@
       <c r="B94" s="2">
         <v>3</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>383</v>
       </c>
       <c r="G94" s="2">
@@ -4888,16 +5213,16 @@
       <c r="B95" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>388</v>
       </c>
       <c r="G95" s="2">
@@ -4905,22 +5230,22 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>393</v>
       </c>
       <c r="G96" s="2">
@@ -4934,16 +5259,16 @@
       <c r="B97" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="3" t="s">
         <v>398</v>
       </c>
       <c r="G97" s="2">
@@ -4980,16 +5305,16 @@
       <c r="B99" s="2">
         <v>2</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>404</v>
       </c>
       <c r="G99" s="2">
@@ -5003,16 +5328,16 @@
       <c r="B100" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>410</v>
       </c>
       <c r="G100" s="2">
@@ -5043,22 +5368,22 @@
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>412</v>
       </c>
       <c r="B102" s="2">
         <v>3</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G102" s="2">
@@ -5066,22 +5391,22 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>420</v>
       </c>
       <c r="G103" s="2">
@@ -5089,22 +5414,22 @@
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B104" s="2">
         <v>2</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>425</v>
       </c>
       <c r="G104" s="2">
@@ -5112,150 +5437,168 @@
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>426</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>430</v>
       </c>
       <c r="G105" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:6">
-      <c r="A106" s="4" t="s">
+    <row r="106" customHeight="1" spans="1:7">
+      <c r="A106" s="3" t="s">
         <v>431</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:6">
-      <c r="A107" s="4" t="s">
+      <c r="G106" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" ht="35" customHeight="1" spans="1:7">
+      <c r="A107" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B107" s="2">
         <v>2</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:6">
-      <c r="A108" s="4" t="s">
+      <c r="G107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" ht="35" customHeight="1" spans="1:7">
+      <c r="A108" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:6">
-      <c r="A109" s="4" t="s">
+      <c r="G108" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" ht="35" customHeight="1" spans="1:7">
+      <c r="A109" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B109" s="2">
         <v>2</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:6">
-      <c r="A110" s="5" t="s">
+      <c r="G109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" ht="35" customHeight="1" spans="1:7">
+      <c r="A110" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:6">
-      <c r="A111" s="7" t="s">
+      <c r="G110" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" ht="35" customHeight="1" spans="1:7">
+      <c r="A111" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:6">
-      <c r="A112" s="7" t="s">
+      <c r="G111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" ht="35" customHeight="1" spans="1:7">
+      <c r="A112" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B112" s="2">
@@ -5273,9 +5616,12 @@
       <c r="F112" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:6">
-      <c r="A113" s="7" t="s">
+      <c r="G112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" ht="35" customHeight="1" spans="1:7">
+      <c r="A113" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B113" s="2">
@@ -5293,9 +5639,12 @@
       <c r="F113" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:6">
-      <c r="A114" s="7" t="s">
+      <c r="G113" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" ht="35" customHeight="1" spans="1:7">
+      <c r="A114" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="2">
@@ -5313,85 +5662,836 @@
       <c r="F114" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:6">
-      <c r="A115" s="7" t="s">
+      <c r="G114" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" ht="35" customHeight="1" spans="1:7">
+      <c r="A115" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B115" s="2">
         <v>3</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:6">
-      <c r="A116" s="7" t="s">
+      <c r="G115" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" ht="35" customHeight="1" spans="1:7">
+      <c r="A116" s="3" t="s">
         <v>469</v>
       </c>
       <c r="B116" s="2">
         <v>2</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:6">
-      <c r="A117" s="7" t="s">
+      <c r="G116" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" ht="35" customHeight="1" spans="1:7">
+      <c r="A117" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:6">
-      <c r="A118" s="7" t="s">
+      <c r="G117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" ht="35" customHeight="1" spans="1:7">
+      <c r="A118" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G118" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" ht="35" customHeight="1" spans="1:7">
+      <c r="A119" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>482</v>
+      <c r="C119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" ht="35" customHeight="1" spans="1:7">
+      <c r="A120" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G120" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" ht="35" customHeight="1" spans="1:7">
+      <c r="A121" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G121" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" ht="35" customHeight="1" spans="1:7">
+      <c r="A122" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G122" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" ht="35" customHeight="1" spans="1:7">
+      <c r="A123" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" ht="35" customHeight="1" spans="1:7">
+      <c r="A124" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" ht="35" customHeight="1" spans="1:7">
+      <c r="A125" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G125" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" ht="35" customHeight="1" spans="1:7">
+      <c r="A126" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" ht="35" customHeight="1" spans="1:7">
+      <c r="A127" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G127" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" ht="35" customHeight="1" spans="1:7">
+      <c r="A128" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G128" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" ht="35" customHeight="1" spans="1:7">
+      <c r="A129" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G129" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" ht="35" customHeight="1" spans="1:7">
+      <c r="A130" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G130" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" ht="35" customHeight="1" spans="1:7">
+      <c r="A131" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G131" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" ht="35" customHeight="1" spans="1:7">
+      <c r="A132" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" ht="35" customHeight="1" spans="1:7">
+      <c r="A133" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" ht="79" customHeight="1" spans="1:7">
+      <c r="A134" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G134" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" ht="35" customHeight="1" spans="1:7">
+      <c r="A135" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G135" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" ht="62" customHeight="1" spans="1:7">
+      <c r="A136" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G136" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" ht="35" customHeight="1" spans="1:7">
+      <c r="A137" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G137" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" ht="35" customHeight="1" spans="1:7">
+      <c r="A138" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G138" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" ht="35" customHeight="1" spans="1:7">
+      <c r="A139" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G139" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" ht="35" customHeight="1" spans="1:7">
+      <c r="A140" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G140" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" ht="35" customHeight="1" spans="1:7">
+      <c r="A141" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" ht="35" customHeight="1" spans="1:7">
+      <c r="A142" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G142" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" ht="35" customHeight="1" spans="1:7">
+      <c r="A143" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G143" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" ht="35" customHeight="1" spans="1:7">
+      <c r="A144" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G144" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:7">
+      <c r="A145" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G145" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:7">
+      <c r="A146" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G146" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:7">
+      <c r="A147" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G147" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:7">
+      <c r="A148" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G148" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:7">
+      <c r="A149" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G149" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:7">
+      <c r="A150" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G150" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/插花/Excel配置表/Question.xlsx
+++ b/插花/Excel配置表/Question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23328" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="576">
   <si>
     <t>问题</t>
   </si>
@@ -486,10 +486,7 @@
     <t>B.×</t>
   </si>
   <si>
-    <t>C.None</t>
-  </si>
-  <si>
-    <t>D.None</t>
+    <t>None</t>
   </si>
   <si>
     <t>13.‏在传统的东方插花中，花器是插花作品不可缺少的组成部分。古人要求花、器、几架三位一体。</t>
@@ -1754,12 +1751,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1775,41 +1772,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,11 +1800,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1866,11 +1838,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1884,7 +1880,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1892,7 +1888,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1900,6 +1896,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1934,37 +1938,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,85 +1986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,19 +1998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2108,13 +2034,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,26 +2129,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2174,6 +2158,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2225,6 +2218,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2233,10 +2237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2245,137 +2249,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,10 +2389,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2741,3467 +2742,3467 @@
   <sheetPr/>
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A150" sqref="$A150:$XFD150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="25.4" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="25.25" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="76.9907407407407" style="2" customWidth="1"/>
+    <col min="1" max="1" width="83.5333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.9666666666667" style="2" customWidth="1"/>
     <col min="4" max="5" width="25.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.4259259259259" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.425" style="2" customWidth="1"/>
     <col min="7" max="16384" width="25.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" ht="43" customHeight="1" spans="1:7">
-      <c r="A32" s="2" t="s">
+      <c r="G31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="43" customHeight="1" spans="1:7">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="3">
         <v>0</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="53" customHeight="1" spans="1:7">
-      <c r="A34" s="2" t="s">
+      <c r="E34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="3">
         <v>0</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" ht="74" customHeight="1" spans="1:7">
-      <c r="A35" s="2" t="s">
+      <c r="E35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="3">
         <v>0</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
+      <c r="A57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
+      <c r="A58" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
+      <c r="A59" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
+      <c r="A60" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="E60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
+      <c r="A61" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
+      <c r="A62" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
+      <c r="A65" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G69" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G71" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G73" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C74" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
+      <c r="A76" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" s="3">
+        <v>3</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G80" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
+      <c r="A81" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G82" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:7">
+      <c r="A84" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G44" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="2" t="s">
+      <c r="C84" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:7">
+      <c r="A85" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="C85" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G85" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:7">
+      <c r="A86" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:7">
+      <c r="A87" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G87" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
+      <c r="A88" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:7">
+      <c r="A89" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" s="3">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:7">
+      <c r="A90" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G91" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
+      <c r="A93" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" s="3">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G95" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
+      <c r="A96" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
+      <c r="A97" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="C97" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G97" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
+      <c r="A98" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="3">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G49" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="C98" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
+      <c r="A99" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G99" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B101" s="3">
         <v>0</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G50" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="C101" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
+      <c r="A102" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
+      <c r="A103" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G103" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
+      <c r="A104" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G104" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
+      <c r="A105" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G51" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" ht="60" customHeight="1" spans="1:7">
-      <c r="A52" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="C105" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G105" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:7">
+      <c r="A106" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G106" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G107" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:7">
+      <c r="A108" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:7">
+      <c r="A109" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G109" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
+      <c r="A110" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:7">
+      <c r="A111" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G111" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
+      <c r="A112" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G112" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B113" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G52" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="C113" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G113" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
+      <c r="A114" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B114" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C114" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
+      <c r="A115" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B115" s="3">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G115" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
+      <c r="A116" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G116" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
+      <c r="A117" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="F117" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G117" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
+      <c r="A118" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G118" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
+      <c r="A119" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:7">
+      <c r="A120" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B120" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G54" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:7">
-      <c r="A55" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="C120" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:7">
+      <c r="A121" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G121" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
+      <c r="A122" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G55" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G57" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="C122" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G122" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:7">
+      <c r="A123" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B123" s="3">
         <v>0</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G58" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="C123" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G123" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:7">
+      <c r="A124" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B124" s="3">
         <v>0</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G59" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" ht="65" customHeight="1" spans="1:7">
-      <c r="A60" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="C124" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G124" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:7">
+      <c r="A125" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B125" s="3">
         <v>0</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="56" customHeight="1" spans="1:7">
-      <c r="A61" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="E125" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G125" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:7">
+      <c r="A126" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B126" s="3">
         <v>0</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" ht="51" customHeight="1" spans="1:7">
-      <c r="A62" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="E126" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:7">
+      <c r="A127" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G127" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:7">
+      <c r="A128" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B128" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" s="2">
-        <v>0</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" ht="33" customHeight="1" spans="1:7">
-      <c r="A64" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" ht="45" customHeight="1" spans="1:7">
-      <c r="A65" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B65" s="2">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G65" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B66" s="2">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G66" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B67" s="2">
-        <v>2</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G67" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B68" s="2">
-        <v>3</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G68" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B69" s="2">
-        <v>3</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G69" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G70" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G71" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G72" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G73" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G74" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B75" s="2">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" ht="47" customHeight="1" spans="1:7">
-      <c r="A76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G76" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G77" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G78" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B80" s="2">
-        <v>3</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G80" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B81" s="2">
-        <v>2</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" ht="57" customHeight="1" spans="1:7">
-      <c r="A82" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" s="2">
-        <v>3</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G82" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B83" s="2">
-        <v>0</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G83" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G84" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" ht="51" customHeight="1" spans="1:7">
-      <c r="A85" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G85" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" ht="48" customHeight="1" spans="1:7">
-      <c r="A86" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G86" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G87" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G88" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B89" s="2">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G90" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G91" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G92" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B93" s="2">
-        <v>3</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G93" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B94" s="2">
-        <v>3</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G94" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G95" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G96" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G97" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G98" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B99" s="2">
-        <v>2</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G99" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G100" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G101" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B102" s="2">
-        <v>3</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G102" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G103" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B104" s="2">
-        <v>2</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G104" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G105" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G106" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" ht="35" customHeight="1" spans="1:7">
-      <c r="A107" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B107" s="2">
-        <v>2</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G107" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" ht="35" customHeight="1" spans="1:7">
-      <c r="A108" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B108" s="2">
-        <v>0</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G108" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" ht="35" customHeight="1" spans="1:7">
-      <c r="A109" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B109" s="2">
-        <v>2</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="G109" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" ht="35" customHeight="1" spans="1:7">
-      <c r="A110" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G110" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" ht="35" customHeight="1" spans="1:7">
-      <c r="A111" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G111" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" ht="35" customHeight="1" spans="1:7">
-      <c r="A112" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B112" s="2">
-        <v>0</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G112" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" ht="35" customHeight="1" spans="1:7">
-      <c r="A113" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G113" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" ht="35" customHeight="1" spans="1:7">
-      <c r="A114" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G114" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" ht="35" customHeight="1" spans="1:7">
-      <c r="A115" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B115" s="2">
-        <v>3</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G115" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" ht="35" customHeight="1" spans="1:7">
-      <c r="A116" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B116" s="2">
-        <v>2</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G116" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" ht="35" customHeight="1" spans="1:7">
-      <c r="A117" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B117" s="2">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G117" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" ht="35" customHeight="1" spans="1:7">
-      <c r="A118" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G118" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" ht="35" customHeight="1" spans="1:7">
-      <c r="A119" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B119" s="2">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G119" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" ht="35" customHeight="1" spans="1:7">
-      <c r="A120" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B120" s="2">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G120" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" ht="35" customHeight="1" spans="1:7">
-      <c r="A121" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B121" s="2">
-        <v>2</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="G121" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" ht="35" customHeight="1" spans="1:7">
-      <c r="A122" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="G122" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" ht="35" customHeight="1" spans="1:7">
-      <c r="A123" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B123" s="2">
-        <v>0</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G123" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" ht="35" customHeight="1" spans="1:7">
-      <c r="A124" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B124" s="2">
-        <v>0</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G124" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" ht="35" customHeight="1" spans="1:7">
-      <c r="A125" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B125" s="2">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G125" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" ht="35" customHeight="1" spans="1:7">
-      <c r="A126" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B126" s="2">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G126" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" ht="35" customHeight="1" spans="1:7">
-      <c r="A127" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B127" s="2">
-        <v>3</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G127" s="2">
+      <c r="C128" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G128" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="128" ht="35" customHeight="1" spans="1:7">
-      <c r="A128" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F128" s="3" t="s">
+    <row r="129" customHeight="1" spans="1:7">
+      <c r="A129" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G128" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" ht="35" customHeight="1" spans="1:7">
-      <c r="A129" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>2</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="G129" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:7">
+      <c r="A130" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="G129" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" ht="35" customHeight="1" spans="1:7">
-      <c r="A130" s="2" t="s">
+      <c r="B130" s="3">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="B130" s="2">
-        <v>3</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:7">
+      <c r="A131" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G130" s="2">
+      <c r="B131" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G131" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="131" ht="35" customHeight="1" spans="1:7">
-      <c r="A131" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F131" s="3" t="s">
+    <row r="132" customHeight="1" spans="1:7">
+      <c r="A132" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G131" s="2">
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G132" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="132" ht="35" customHeight="1" spans="1:7">
-      <c r="A132" s="2" t="s">
+    <row r="133" customHeight="1" spans="1:7">
+      <c r="A133" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G133" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:7">
+      <c r="A134" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B134" s="3">
         <v>0</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" s="2">
+      <c r="E134" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G134" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="133" ht="35" customHeight="1" spans="1:7">
-      <c r="A133" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B133" s="2">
+    <row r="135" customHeight="1" spans="1:7">
+      <c r="A135" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G135" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:7">
+      <c r="A136" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G136" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:7">
+      <c r="A137" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G137" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:7">
+      <c r="A138" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G138" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:7">
+      <c r="A139" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B139" s="3">
         <v>1</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C139" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G139" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:7">
+      <c r="A140" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G140" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:7">
+      <c r="A141" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G133" s="2">
+      <c r="E141" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G141" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="134" ht="79" customHeight="1" spans="1:7">
-      <c r="A134" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B134" s="2">
+    <row r="142" customHeight="1" spans="1:7">
+      <c r="A142" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B142" s="3">
         <v>0</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G134" s="2">
+      <c r="E142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G142" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="135" ht="35" customHeight="1" spans="1:7">
-      <c r="A135" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B135" s="2">
+    <row r="143" customHeight="1" spans="1:7">
+      <c r="A143" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B143" s="3">
         <v>0</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D143" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G135" s="2">
+      <c r="E143" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G143" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="136" ht="62" customHeight="1" spans="1:7">
-      <c r="A136" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B136" s="2">
-        <v>2</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="G136" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" ht="35" customHeight="1" spans="1:7">
-      <c r="A137" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B137" s="2">
-        <v>0</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G137" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" ht="35" customHeight="1" spans="1:7">
-      <c r="A138" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B138" s="2">
-        <v>0</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G138" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" ht="35" customHeight="1" spans="1:7">
-      <c r="A139" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B139" s="2">
+    <row r="144" customHeight="1" spans="1:7">
+      <c r="A144" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B144" s="3">
         <v>1</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G139" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" ht="35" customHeight="1" spans="1:7">
-      <c r="A140" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G140" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" ht="35" customHeight="1" spans="1:7">
-      <c r="A141" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B141" s="2">
-        <v>0</v>
-      </c>
-      <c r="C141" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G141" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" ht="35" customHeight="1" spans="1:7">
-      <c r="A142" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B142" s="2">
-        <v>0</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G142" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" ht="35" customHeight="1" spans="1:7">
-      <c r="A143" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B143" s="2">
-        <v>0</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G143" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" ht="35" customHeight="1" spans="1:7">
-      <c r="A144" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G144" s="2">
+      <c r="E144" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G144" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:7">
       <c r="A145" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B145" s="2">
-        <v>1</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G145" s="2">
+      <c r="G145" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:7">
       <c r="A146" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B146" s="2">
-        <v>1</v>
-      </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G146" s="2">
+      <c r="G146" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:7">
       <c r="A147" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B147" s="2">
-        <v>2</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="G147" s="2">
+      <c r="G147" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:7">
       <c r="A148" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="G148" s="2">
+      <c r="G148" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:7">
       <c r="A149" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G149" s="2">
+      <c r="G149" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:7">
       <c r="A150" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B150" s="2">
+        <v>575</v>
+      </c>
+      <c r="B150" s="3">
         <v>0</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G150" s="2">
+      <c r="E150" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G150" s="3">
         <v>7</v>
       </c>
     </row>
@@ -6221,7 +6222,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2"/>
@@ -6307,7 +6308,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
